--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -3093,7 +3093,7 @@
   <dimension ref="B2:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3133,7 +3133,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>